--- a/Data/日间手术总结报表.xlsx
+++ b/Data/日间手术总结报表.xlsx
@@ -396,7 +396,7 @@
         <v>2024</v>
       </c>
       <c r="B2">
-        <v>691</v>
+        <v>817</v>
       </c>
     </row>
   </sheetData>
@@ -512,97 +512,97 @@
         <v>2024</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L2">
+        <v>38</v>
+      </c>
+      <c r="M2">
+        <v>36</v>
+      </c>
+      <c r="N2">
+        <v>32</v>
+      </c>
+      <c r="O2">
+        <v>30</v>
+      </c>
+      <c r="P2">
         <v>31</v>
       </c>
-      <c r="M2">
-        <v>28</v>
-      </c>
-      <c r="N2">
+      <c r="Q2">
         <v>22</v>
-      </c>
-      <c r="O2">
-        <v>29</v>
-      </c>
-      <c r="P2">
-        <v>24</v>
-      </c>
-      <c r="Q2">
-        <v>21</v>
       </c>
       <c r="R2">
         <v>21</v>
       </c>
       <c r="S2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="T2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="U2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V2">
+        <v>30</v>
+      </c>
+      <c r="W2">
+        <v>32</v>
+      </c>
+      <c r="X2">
         <v>21</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
+        <v>34</v>
+      </c>
+      <c r="Z2">
+        <v>28</v>
+      </c>
+      <c r="AA2">
+        <v>31</v>
+      </c>
+      <c r="AB2">
+        <v>24</v>
+      </c>
+      <c r="AC2">
         <v>26</v>
       </c>
-      <c r="X2">
-        <v>19</v>
-      </c>
-      <c r="Y2">
-        <v>31</v>
-      </c>
-      <c r="Z2">
-        <v>23</v>
-      </c>
-      <c r="AA2">
-        <v>25</v>
-      </c>
-      <c r="AB2">
+      <c r="AD2">
+        <v>33</v>
+      </c>
+      <c r="AE2">
         <v>20</v>
       </c>
-      <c r="AC2">
-        <v>24</v>
-      </c>
-      <c r="AD2">
-        <v>28</v>
-      </c>
-      <c r="AE2">
-        <v>19</v>
-      </c>
       <c r="AF2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -646,25 +646,25 @@
         <v>2024</v>
       </c>
       <c r="B2">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="C2">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="D2">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="F2">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="G2">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H2">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +674,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -951,7 +951,7 @@
         <v>19</v>
       </c>
       <c r="E11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -961,6 +961,32 @@
       </c>
       <c r="H11">
         <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>22</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -970,7 +996,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1061,7 +1087,15 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>94</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1071,7 +1105,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1378,7 +1412,39 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>18</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>46</v>
+      </c>
+      <c r="B40">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>47</v>
+      </c>
+      <c r="B41">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>48</v>
+      </c>
+      <c r="B42">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1407,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>135</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1415,7 +1481,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>133</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1423,7 +1489,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>138</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1431,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1439,7 +1505,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1447,7 +1513,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1455,7 +1521,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1484,7 +1550,7 @@
         <v>2024</v>
       </c>
       <c r="B2">
-        <v>691</v>
+        <v>817</v>
       </c>
     </row>
   </sheetData>
@@ -1494,7 +1560,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1585,7 +1651,15 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1595,13 +1669,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1">
         <v>1</v>
       </c>
@@ -1632,8 +1706,11 @@
       <c r="K1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>2024</v>
       </c>
@@ -1665,7 +1742,10 @@
         <v>93</v>
       </c>
       <c r="K2">
-        <v>20</v>
+        <v>128</v>
+      </c>
+      <c r="L2">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1675,13 +1755,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1">
         <v>1</v>
       </c>
@@ -1712,8 +1792,11 @@
       <c r="K1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>2024</v>
       </c>
@@ -1745,7 +1828,10 @@
         <v>105</v>
       </c>
       <c r="K2">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="L2">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1755,13 +1841,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AP2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:42">
       <c r="B1">
         <v>4</v>
       </c>
@@ -1873,8 +1959,20 @@
       <c r="AL1">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:38">
+      <c r="AM1">
+        <v>45</v>
+      </c>
+      <c r="AN1">
+        <v>46</v>
+      </c>
+      <c r="AO1">
+        <v>47</v>
+      </c>
+      <c r="AP1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42">
       <c r="A2">
         <v>2024</v>
       </c>
@@ -1987,7 +2085,19 @@
         <v>29</v>
       </c>
       <c r="AL2">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="AM2">
+        <v>33</v>
+      </c>
+      <c r="AN2">
+        <v>34</v>
+      </c>
+      <c r="AO2">
+        <v>31</v>
+      </c>
+      <c r="AP2">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
